--- a/demo/output.xlsx
+++ b/demo/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,17 +456,17 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed:1</t>
+          <t>ttt</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>fff</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>accessMode</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 6</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -478,46 +478,46 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>冷却供水温度</t>
+          <t>27#风阀控制</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>℃</t>
+          <t>%</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>FLOAT</t>
+          <t>INT</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>0.01</v>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>读Analog Input)</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>LQGSWD</t>
+          <t>27_FFKZ</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>冷却供水压力</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>26#风阀控制</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>FLOAT</t>
@@ -527,29 +527,29 @@
         <v>0.01</v>
       </c>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>读Analog Input)</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>LQGSYL</t>
+          <t>26_FFKZ</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>冷却回水压力</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>25#风阀控制</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>FLOAT</t>
@@ -559,55 +559,371 @@
         <v>0.01</v>
       </c>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>读Analog Input)</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>LQHSYL</t>
+          <t>25_FFKZ</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>冷却回水温度</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>℃</t>
-        </is>
-      </c>
+          <t>24#风阀控制</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>FLOAT</t>
+          <t>BOOL</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>0.01</v>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>报警</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>正常</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>读Analog Input)</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>LQHSWD</t>
+          <t>24_FFKZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>23#风阀控制</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>FLOAT</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23_FFKZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>22#风阀控制</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>FLOAT</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>22_FFKZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>21#风阀控制</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>FLOAT</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>21_FFKZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>17#风阀反馈</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>FLOAT</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>17_FFFK</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>16#风阀反馈</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>FLOAT</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>16_FFFK</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>15#风阀反馈</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>FLOAT</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>15_FFFK</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>14#风阀反馈</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>FLOAT</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>14_FFFK</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>13#风阀反馈</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>FLOAT</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>13_FFFK</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>12#风阀反馈</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>FLOAT</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>12_FFFK</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>11#风阀反馈</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>FLOAT</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>11_FFFK</t>
         </is>
       </c>
     </row>
